--- a/python講習.xlsx
+++ b/python講習.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>ターミナルの操作</t>
     <rPh sb="6" eb="8">
@@ -778,6 +778,49 @@
     <t>目標</t>
     <rPh sb="0" eb="2">
       <t>モクヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル、mat_calc.py に次の機能を追加する。配列Aの2行目および配列Bの2列目の要素すべてをターミナルに出力する。また、配列Aの3行1列目の要素をターミナルに出力する。</t>
+    <rPh sb="28" eb="30">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ギョウメ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>シュツリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -857,12 +900,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1143,10 +1186,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1156,18 +1199,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="3">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -1178,31 +1221,31 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="3"/>
+      <c r="A3" s="7"/>
       <c r="C3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="3"/>
+      <c r="A4" s="7"/>
       <c r="C4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="3"/>
+      <c r="A5" s="7"/>
       <c r="C5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="3"/>
+      <c r="A6" s="7"/>
       <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="3"/>
+      <c r="A7" s="7"/>
       <c r="B7" t="s">
         <v>1</v>
       </c>
@@ -1211,19 +1254,19 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="3"/>
+      <c r="A8" s="7"/>
       <c r="C8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="3"/>
+      <c r="A9" s="7"/>
       <c r="C9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A10" s="3"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
@@ -1232,113 +1275,120 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A11" s="3"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="2"/>
       <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="75" x14ac:dyDescent="0.4">
-      <c r="A12" s="3">
+    <row r="12" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A12" s="7"/>
+      <c r="C12" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="75" x14ac:dyDescent="0.4">
+      <c r="A13" s="7">
         <v>2</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A13" s="3"/>
-      <c r="C13" s="1" t="s">
+    <row r="14" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A14" s="7"/>
+      <c r="C14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A14" s="3"/>
-      <c r="C14" s="1" t="s">
+    <row r="15" spans="1:3" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A15" s="7"/>
+      <c r="C15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A15" s="3"/>
-      <c r="B15" s="2" t="s">
+    <row r="16" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A16" s="7"/>
+      <c r="B16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A16" s="3"/>
-      <c r="C16" s="1" t="s">
+    <row r="17" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A17" s="7"/>
+      <c r="C17" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A17" s="3"/>
-      <c r="C17" s="1" t="s">
+    <row r="18" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A18" s="7"/>
+      <c r="C18" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A18" s="3">
+    <row r="19" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A19" s="7">
         <v>3</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="3"/>
-      <c r="C19" s="1" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" s="7"/>
+      <c r="C20" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" s="3"/>
-      <c r="C20" s="1" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" s="7"/>
+      <c r="C21" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21" s="3"/>
-      <c r="C21" s="1" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" s="7"/>
+      <c r="C22" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22" s="4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" s="3">
         <v>4</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A23" s="4">
+    <row r="24" spans="1:3" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A24" s="3">
         <v>5</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="75" x14ac:dyDescent="0.4">
-      <c r="A24" s="4">
+    <row r="25" spans="1:3" ht="75" x14ac:dyDescent="0.4">
+      <c r="A25" s="3">
         <v>6</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A19:A22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
